--- a/tables/app/Would you feel physically safe if there was monitoring of park or square usage that you could access through your phone?.xlsx
+++ b/tables/app/Would you feel physically safe if there was monitoring of park or square usage that you could access through your phone?.xlsx
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
     </row>
   </sheetData>
